--- a/Resources/Identyfikatory.xlsx
+++ b/Resources/Identyfikatory.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">lokalizacja pliku do importu</t>
   </si>
   <si>
-    <t xml:space="preserve">C:/Git – java/MuseScoreUpload/Resources/Pliki do importu/test.pdf</t>
+    <t xml:space="preserve">C:/Git – java/MuseScoreUpload/test.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">link do strony logowania</t>
